--- a/Docs/Post-Experiment Questionarie.xlsx
+++ b/Docs/Post-Experiment Questionarie.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Likert Questions" sheetId="1" r:id="rId1"/>
     <sheet name="Coding" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Statistical Tests" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Likert Questions'!$A$1:$J$49</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="70">
   <si>
     <t>Participant</t>
   </si>
@@ -234,6 +237,33 @@
   <si>
     <t>Efficiency</t>
   </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>NoMask</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
 </sst>
 </file>
 
@@ -362,22 +392,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$2:$AB$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0428932188134525</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.967114046826641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.564339828220179</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4588746186870956</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -428,22 +442,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$3:$AB$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -494,22 +492,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$4:$AB$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.375</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -560,22 +542,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$5:$AB$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -625,22 +591,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$6:$AB$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4571067811865475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7828859531733592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.685660171779821</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.291125381312904</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -661,11 +611,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99387648"/>
-        <c:axId val="99397632"/>
+        <c:axId val="98307072"/>
+        <c:axId val="98312960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99387648"/>
+        <c:axId val="98307072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99397632"/>
+        <c:crossAx val="98312960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -682,7 +632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99397632"/>
+        <c:axId val="98312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99387648"/>
+        <c:crossAx val="98307072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,42 +711,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$10:$AB$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.10791943820390726</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9607864376269049</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.29047703960372</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5741799002274486</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -827,42 +746,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$11:$AB$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -893,42 +781,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$12:$AB$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -959,42 +816,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$13:$AB$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1024,42 +850,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$14:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.3920805617960927</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7892135623730949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9595229603962805</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.425820099772551</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1080,11 +875,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100315136"/>
-        <c:axId val="100316672"/>
+        <c:axId val="98366208"/>
+        <c:axId val="98367744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100315136"/>
+        <c:axId val="98366208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100316672"/>
+        <c:crossAx val="98367744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1101,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100316672"/>
+        <c:axId val="98367744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100315136"/>
+        <c:crossAx val="98366208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,42 +975,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$18:$AB$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.5850352549785649</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9682601110766886</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8635947395720818</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.29047703960372</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1246,42 +1010,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$19:$AB$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1312,42 +1045,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$20:$AB$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.125</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1378,42 +1080,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$21:$AB$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1443,42 +1114,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$22:$AB$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.9149647450214351</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5317398889233118</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6364052604279182</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.95952296039628</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1499,11 +1139,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100414592"/>
-        <c:axId val="100416128"/>
+        <c:axId val="98482048"/>
+        <c:axId val="98483584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100414592"/>
+        <c:axId val="98482048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100416128"/>
+        <c:crossAx val="98483584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1520,7 +1160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100416128"/>
+        <c:axId val="98483584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100414592"/>
+        <c:crossAx val="98482048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1599,21 +1239,6 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1665,21 +1290,6 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1731,21 +1341,6 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1797,21 +1392,6 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1862,21 +1442,6 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1918,11 +1483,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100460800"/>
-        <c:axId val="99942400"/>
+        <c:axId val="110517248"/>
+        <c:axId val="110523136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100460800"/>
+        <c:axId val="110517248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99942400"/>
+        <c:crossAx val="110523136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +1504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99942400"/>
+        <c:axId val="110523136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100460800"/>
+        <c:crossAx val="110517248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2038,22 +1603,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$34:$AB$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5422620262886748</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0741799002274486</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1906926585840458</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2104,22 +1653,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$35:$AB$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2170,22 +1703,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$36:$AB$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2236,22 +1753,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$37:$AB$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2301,22 +1802,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$38:$AB$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4577379737113247</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.925820099772551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8093073414159537</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2337,11 +1822,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100003840"/>
-        <c:axId val="100005376"/>
+        <c:axId val="110569728"/>
+        <c:axId val="110587904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100003840"/>
+        <c:axId val="110569728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +1835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100005376"/>
+        <c:crossAx val="110587904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +1843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100005376"/>
+        <c:axId val="110587904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,13 +1854,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100003840"/>
+        <c:crossAx val="110569728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2441,42 +1927,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$42:$AB$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4885947395720818</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8612698503411726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9682601110766886</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2507,42 +1962,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$43:$AB$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2573,42 +1997,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$44:$AB$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.25</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2639,42 +2032,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$45:$AB$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2704,42 +2066,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$46:$AB$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2614052604279182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6387301496588274</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5317398889233118</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2760,11 +2091,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100120064"/>
-        <c:axId val="100121600"/>
+        <c:axId val="110616576"/>
+        <c:axId val="110618112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100120064"/>
+        <c:axId val="110616576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100121600"/>
+        <c:crossAx val="110618112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100121600"/>
+        <c:axId val="110618112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,13 +2123,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100120064"/>
+        <c:crossAx val="110616576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4695,16 +4027,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI21" sqref="AI21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.85546875" customWidth="1"/>
@@ -4781,7 +4116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4866,7 +4201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4929,7 +4264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4992,7 +4327,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5055,7 +4390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5102,7 +4437,7 @@
         <v>4.291125381312904</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5130,7 +4465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5158,7 +4493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5201,7 +4536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5283,7 +4618,7 @@
         <v>2.5741799002274486</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5346,7 +4681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5409,7 +4744,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5472,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -5519,7 +4854,7 @@
         <v>4.425820099772551</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5547,7 +4882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -5575,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -5618,7 +4953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5700,7 +5035,7 @@
         <v>2.29047703960372</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5763,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5826,7 +5161,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5889,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5936,7 +5271,7 @@
         <v>3.95952296039628</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5964,7 +5299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -5995,7 +5330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -6452,7 +5787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6530,7 +5865,7 @@
         <v>2.1906926585840458</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -6592,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -6654,7 +5989,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6717,7 +6052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -6764,7 +6099,7 @@
         <v>4.8093073414159537</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -6792,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -6820,7 +6155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -6860,7 +6195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6941,7 +6276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -7003,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -7066,7 +6401,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -7129,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -7176,7 +6511,7 @@
         <v>4.5317398889233118</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -7204,7 +6539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -7232,7 +6567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -7261,6 +6596,22 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J49">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:H49">
     <sortCondition ref="B2:B49"/>
     <sortCondition ref="A2:A49"/>
@@ -7658,8 +7009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7944,81 +7295,698 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.75</v>
-      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>3.375</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3.625</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.70710678118654757</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.CHISQ.TEST(B2:B9,C2:C9)</f>
+        <v>5.2683523916506811E-2</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.CHISQ.TEST(B2:B9,D2:D9)</f>
+        <v>0.19142467629605378</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.CHISQ.TEST(B2:B9,E2:E9)</f>
+        <v>0.21344037600224255</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.CHISQ.TEST(C2:C9,D2:D9)</f>
+        <v>0.3282056193107864</v>
+      </c>
+      <c r="J2">
+        <f>_xlfn.CHISQ.TEST(C2:C9,E2:E9)</f>
+        <v>0.92069236341701699</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.CHISQ.TEST(D2:D9,E2:E9)</f>
+        <v>0.92069236341701699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>1.407885953173359</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.0606601717798212</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0.91612538131290433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>_xlfn.CHISQ.TEST(B12:B19,C12:C19)</f>
+        <v>3.1374977519622593E-3</v>
+      </c>
+      <c r="G12">
+        <f>_xlfn.CHISQ.TEST(B12:B19,D12:D19)</f>
+        <v>0.15543175620470284</v>
+      </c>
+      <c r="H12">
+        <f>_xlfn.CHISQ.TEST(B12:B19,E12:E19)</f>
+        <v>0.1766240551559233</v>
+      </c>
+      <c r="I12">
+        <f>_xlfn.CHISQ.TEST(C12:C19,D12:D19)</f>
+        <v>0.55147328836322296</v>
+      </c>
+      <c r="J12">
+        <f>_xlfn.CHISQ.TEST(C12:C19,E12:E19)</f>
+        <v>0.95508430168268665</v>
+      </c>
+      <c r="K12">
+        <f>_xlfn.CHISQ.TEST(D12:D19,E12:E19)</f>
+        <v>0.7603930674907281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>_xlfn.CHISQ.TEST(B22:B29,C22:C29)</f>
+        <v>0.1661649952834898</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.CHISQ.TEST(B22:B29,D22:D29)</f>
+        <v>7.4582682225004263E-2</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.CHISQ.TEST(B22:B29,E22:E29)</f>
+        <v>0.25869456578987676</v>
+      </c>
+      <c r="I22">
+        <f>_xlfn.CHISQ.TEST(C22:C29,D22:D29)</f>
+        <v>0.67826249059286026</v>
+      </c>
+      <c r="J22">
+        <f>_xlfn.CHISQ.TEST(C22:C29,E22:E29)</f>
+        <v>0.57916419313687606</v>
+      </c>
+      <c r="K22">
+        <f>_xlfn.CHISQ.TEST(D22:D29,E22:E29)</f>
+        <v>0.92069236341701699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f>_xlfn.CHISQ.TEST(B32:B39,C32:C39)</f>
+        <v>0.19334528936201545</v>
+      </c>
+      <c r="G32">
+        <f>_xlfn.CHISQ.TEST(B32:B39,D32:D39)</f>
+        <v>8.5743176505444371E-2</v>
+      </c>
+      <c r="H32">
+        <f>_xlfn.CHISQ.TEST(B32:B39,E32:E39)</f>
+        <v>0.15785467325826186</v>
+      </c>
+      <c r="I32">
+        <f>_xlfn.CHISQ.TEST(C32:C39,D32:D39)</f>
+        <v>0.64979427018066982</v>
+      </c>
+      <c r="J32">
+        <f>_xlfn.CHISQ.TEST(C32:C39,E32:E39)</f>
+        <v>0.98752628180165369</v>
+      </c>
+      <c r="K32">
+        <f>_xlfn.CHISQ.TEST(D32:D39,E32:E39)</f>
+        <v>0.79876165756805195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
         <v>4</v>
       </c>
     </row>

--- a/Docs/Post-Experiment Questionarie.xlsx
+++ b/Docs/Post-Experiment Questionarie.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="70">
   <si>
     <t>Participant</t>
   </si>
@@ -603,7 +603,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines/>
         <c:upDownBars>
           <c:gapWidth val="150"/>
           <c:upBars/>
@@ -611,11 +610,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98307072"/>
-        <c:axId val="98312960"/>
+        <c:axId val="104905344"/>
+        <c:axId val="104911232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98307072"/>
+        <c:axId val="104905344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98312960"/>
+        <c:crossAx val="104911232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -632,7 +631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98312960"/>
+        <c:axId val="104911232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98307072"/>
+        <c:crossAx val="104905344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -709,9 +708,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -744,9 +743,9 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -779,9 +778,9 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -814,9 +813,9 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -848,9 +847,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$9:$AB$9</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -867,7 +866,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines/>
         <c:upDownBars>
           <c:gapWidth val="150"/>
           <c:upBars/>
@@ -875,11 +873,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98366208"/>
-        <c:axId val="98367744"/>
+        <c:axId val="104964096"/>
+        <c:axId val="104965632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98366208"/>
+        <c:axId val="104964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98367744"/>
+        <c:crossAx val="104965632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98367744"/>
+        <c:axId val="104965632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98366208"/>
+        <c:crossAx val="104964096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -973,9 +971,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1008,9 +1006,9 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1043,9 +1041,9 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1078,9 +1076,9 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1112,9 +1110,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$17:$AB$17</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1131,7 +1129,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines/>
         <c:upDownBars>
           <c:gapWidth val="150"/>
           <c:upBars/>
@@ -1139,11 +1136,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98482048"/>
-        <c:axId val="98483584"/>
+        <c:axId val="118182656"/>
+        <c:axId val="118184192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98482048"/>
+        <c:axId val="118182656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98483584"/>
+        <c:crossAx val="118184192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1160,7 +1157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98483584"/>
+        <c:axId val="118184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98482048"/>
+        <c:crossAx val="118182656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,29 +1234,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$26:$AB$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.9885947395720818</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8122650608345792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2440710539815454</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7440710539815454</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1288,29 +1269,13 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$27:$AB$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1339,29 +1304,13 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$28:$AB$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1390,29 +1339,13 @@
             <c:size val="7"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$29:$AB$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1440,29 +1373,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Likert Questions'!$Y$25:$AB$25</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$30:$AB$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7614052604279182</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1877349391654208</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7559289460184546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2559289460184546</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1483,11 +1400,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110517248"/>
-        <c:axId val="110523136"/>
+        <c:axId val="119541760"/>
+        <c:axId val="119543296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110517248"/>
+        <c:axId val="119541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110523136"/>
+        <c:crossAx val="119543296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1504,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110523136"/>
+        <c:axId val="119543296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110517248"/>
+        <c:crossAx val="119541760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,26 +1500,27 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$34:$AB$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5422620262886748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0741799002274486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1906926585840458</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1633,26 +1551,27 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$35:$AB$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1683,26 +1602,27 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$36:$AB$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1733,26 +1653,27 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$37:$AB$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1782,26 +1703,27 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$38:$AB$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4577379737113247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.925820099772551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8093073414159537</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1814,7 +1736,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines/>
         <c:upDownBars>
           <c:gapWidth val="150"/>
           <c:upBars/>
@@ -1822,11 +1743,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110569728"/>
-        <c:axId val="110587904"/>
+        <c:axId val="119587584"/>
+        <c:axId val="119589120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110569728"/>
+        <c:axId val="119587584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110587904"/>
+        <c:crossAx val="119589120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +1764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110587904"/>
+        <c:axId val="119589120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,14 +1775,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110569728"/>
+        <c:crossAx val="119587584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1927,6 +1847,21 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1962,6 +1897,21 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1997,6 +1947,21 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2032,6 +1997,21 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2066,6 +2046,21 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2083,7 +2078,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines/>
         <c:upDownBars>
           <c:gapWidth val="150"/>
           <c:upBars/>
@@ -2091,11 +2085,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110616576"/>
-        <c:axId val="110618112"/>
+        <c:axId val="119625600"/>
+        <c:axId val="119627136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110616576"/>
+        <c:axId val="119625600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110618112"/>
+        <c:crossAx val="119627136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110618112"/>
+        <c:axId val="119627136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,14 +2117,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110616576"/>
+        <c:crossAx val="119625600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4031,8 +4024,8 @@
   <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,7 +5363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5452,7 +5445,7 @@
         <v>2.7440710539815454</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5515,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5578,7 +5571,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5641,7 +5634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5688,7 +5681,7 @@
         <v>4.2559289460184546</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5716,7 +5709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -5744,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -5787,7 +5780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5865,7 +5858,7 @@
         <v>2.1906926585840458</v>
       </c>
     </row>
-    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5927,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -5989,7 +5982,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6052,7 +6045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -6099,7 +6092,7 @@
         <v>4.8093073414159537</v>
       </c>
     </row>
-    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -6127,7 +6120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -6155,7 +6148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -6599,15 +6592,6 @@
   <autoFilter ref="A1:J49">
     <filterColumn colId="1">
       <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="4"/>
         <filter val="5"/>
       </filters>
     </filterColumn>
@@ -7010,7 +6994,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7295,10 +7279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7892,7 +7876,7 @@
         <v>0.79876165756805195</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -7906,7 +7890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1</v>
       </c>
@@ -7920,7 +7904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1</v>
       </c>
@@ -7934,7 +7918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
@@ -7948,7 +7932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2</v>
       </c>
@@ -7962,7 +7946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -7976,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2</v>
       </c>
@@ -7988,6 +7972,216 @@
       </c>
       <c r="E39">
         <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Post-Experiment Questionarie.xlsx
+++ b/Docs/Post-Experiment Questionarie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Likert Questions" sheetId="1" r:id="rId1"/>
@@ -610,11 +610,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104905344"/>
-        <c:axId val="104911232"/>
+        <c:axId val="120240768"/>
+        <c:axId val="120246656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104905344"/>
+        <c:axId val="120240768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104911232"/>
+        <c:crossAx val="120246656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -631,7 +631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104911232"/>
+        <c:axId val="120246656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104905344"/>
+        <c:crossAx val="120240768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -873,11 +873,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104964096"/>
-        <c:axId val="104965632"/>
+        <c:axId val="121544704"/>
+        <c:axId val="121546240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104964096"/>
+        <c:axId val="121544704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104965632"/>
+        <c:crossAx val="121546240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -894,7 +894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104965632"/>
+        <c:axId val="121546240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104964096"/>
+        <c:crossAx val="121544704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,11 +1136,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118182656"/>
-        <c:axId val="118184192"/>
+        <c:axId val="121721600"/>
+        <c:axId val="121723136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118182656"/>
+        <c:axId val="121721600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118184192"/>
+        <c:crossAx val="121723136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1157,7 +1157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118184192"/>
+        <c:axId val="121723136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118182656"/>
+        <c:crossAx val="121721600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1241,6 +1241,22 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$26:$AB$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9885947395720818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8122650608345792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2440710539815454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7440710539815454</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1276,6 +1292,22 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$27:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1311,6 +1343,22 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$28:$AB$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1346,6 +1394,22 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$29:$AB$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1380,6 +1444,22 @@
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$30:$AB$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7614052604279182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1877349391654208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7559289460184546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2559289460184546</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1400,11 +1480,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119541760"/>
-        <c:axId val="119543296"/>
+        <c:axId val="121763328"/>
+        <c:axId val="121764864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119541760"/>
+        <c:axId val="121763328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119543296"/>
+        <c:crossAx val="121764864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119543296"/>
+        <c:axId val="121764864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119541760"/>
+        <c:crossAx val="121763328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,27 +1580,26 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$34:$AB$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5422620262886748</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0741799002274486</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1906926585840458</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1551,27 +1630,26 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$35:$AB$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1602,27 +1680,26 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$36:$AB$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1653,27 +1730,26 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$37:$AB$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1703,27 +1779,26 @@
           <c:cat>
             <c:strRef>
               <c:f>'Likert Questions'!$Y$33:$AB$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Camera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Mask</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Likert Questions'!$Y$38:$AB$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4577379737113247</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.925820099772551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8093073414159537</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1743,11 +1818,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119587584"/>
-        <c:axId val="119589120"/>
+        <c:axId val="121827328"/>
+        <c:axId val="121828864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119587584"/>
+        <c:axId val="121827328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119589120"/>
+        <c:crossAx val="121828864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1764,7 +1839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119589120"/>
+        <c:axId val="121828864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,355 +1850,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119587584"/>
+        <c:crossAx val="121827328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Likert Questions'!$X$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Likert Questions'!$Y$42:$AB$42</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Likert Questions'!$X$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Likert Questions'!$Y$43:$AB$43</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Likert Questions'!$X$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Likert Questions'!$Y$44:$AB$44</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Likert Questions'!$X$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>max</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Likert Questions'!$Y$45:$AB$45</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Likert Questions'!$X$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>q3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Likert Questions'!$Y$41:$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>No Camera</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Mask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mask</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Likert Questions'!$Y$46:$AB$46</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:upDownBars>
-          <c:gapWidth val="150"/>
-          <c:upBars/>
-          <c:downBars/>
-        </c:upDownBars>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="119625600"/>
-        <c:axId val="119627136"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="119625600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119627136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="119627136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119625600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2290,36 +2024,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3737,295 +3441,14 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34:J41"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,7 +4786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5445,7 +4868,7 @@
         <v>2.7440710539815454</v>
       </c>
     </row>
-    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5508,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5571,7 +4994,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5634,7 +5057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5681,7 +5104,7 @@
         <v>4.2559289460184546</v>
       </c>
     </row>
-    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5709,7 +5132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -5737,7 +5160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -5780,7 +5203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5858,7 +5281,7 @@
         <v>2.1906926585840458</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5920,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -5982,7 +5405,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6045,7 +5468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -6092,7 +5515,7 @@
         <v>4.8093073414159537</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -6120,7 +5543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -6148,7 +5571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -6592,7 +6015,7 @@
   <autoFilter ref="A1:J49">
     <filterColumn colId="1">
       <filters>
-        <filter val="5"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7281,8 +6704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
